--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value429.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value429.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.070713605118108</v>
+        <v>1.185402274131775</v>
       </c>
       <c r="B1">
-        <v>1.869979126168959</v>
+        <v>2.472376346588135</v>
       </c>
       <c r="C1">
-        <v>2.271776415496951</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.56570784515509</v>
+        <v>1.762502789497375</v>
       </c>
       <c r="E1">
-        <v>1.24379080743334</v>
+        <v>1.179947137832642</v>
       </c>
     </row>
   </sheetData>
